--- a/test-tools/api_50hour_coldstart_tests/API_50_HOUR_COLDSTART.xlsx
+++ b/test-tools/api_50hour_coldstart_tests/API_50_HOUR_COLDSTART.xlsx
@@ -8,27 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisconnor/Sites/HONOURS_PROJECT/test-tools/api_50hour_coldstart_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C210C212-A573-F948-A836-90CE09E8C178}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D9C2FF-031F-D649-BFE4-4362D1A1928B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="4500" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{325B74F3-EA96-414B-AD57-11D33D94F61C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{325B74F3-EA96-414B-AD57-11D33D94F61C}"/>
   </bookViews>
   <sheets>
     <sheet name="GRAPHS" sheetId="4" r:id="rId1"/>
-    <sheet name="OVERALL GRAPH" sheetId="6" r:id="rId2"/>
-    <sheet name="OVERALL STATS" sheetId="7" r:id="rId3"/>
+    <sheet name="OVERALL STATS" sheetId="7" r:id="rId2"/>
+    <sheet name="Chart3" sheetId="8" r:id="rId3"/>
     <sheet name="JAVA_50HOUR" sheetId="1" r:id="rId4"/>
-    <sheet name="NODE_50HOUR" sheetId="2" r:id="rId5"/>
-    <sheet name="PYTHON_50HOUR" sheetId="3" r:id="rId6"/>
+    <sheet name="Chart4" sheetId="9" r:id="rId5"/>
+    <sheet name="NODE_50HOUR" sheetId="2" r:id="rId6"/>
+    <sheet name="PYTHON_50HOUR" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">JAVA_50HOUR!$F$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">JAVA_50HOUR!$F$2:$F$102</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">JAVA_50HOUR!$F$2:$F$102</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">NODE_50HOUR!$F$2:$F$102</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">PYTHON_50HOUR!$F$2:$F$102</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">JAVA_50HOUR!$F$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">JAVA_50HOUR!$F$2:$F$102</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">JAVA_50HOUR!$I$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">JAVA_50HOUR!$I$2:$I$102</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">JAVA_50HOUR!$J$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">JAVA_50HOUR!$J$2:$J$102</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">JAVA_50HOUR!$F$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">JAVA_50HOUR!$F$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">JAVA_50HOUR!$F$2:$F$102</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">JAVA_50HOUR!$I$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">JAVA_50HOUR!$I$2:$I$102</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">JAVA_50HOUR!$J$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">JAVA_50HOUR!$J$2:$J$102</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">NODE_50HOUR!$F$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">NODE_50HOUR!$F$2:$F$102</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">PYTHON_50HOUR!$F$1:$F$102</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">NODE_50HOUR!$F$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">NODE_50HOUR!$F$2:$F$102</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">JAVA_50HOUR!$F$2:$F$102</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">PYTHON_50HOUR!$F$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">PYTHON_50HOUR!$F$2:$F$102</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">PYTHON_50HOUR!$F$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">PYTHON_50HOUR!$F$2:$F$102</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">PYTHON_50HOUR!$F$1:$F$102</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">JAVA_50HOUR!$F$2:$F$102</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">NODE_50HOUR!$F$2:$F$102</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">PYTHON_50HOUR!$F$2:$F$102</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">JAVA_50HOUR!$F$2:$F$102</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">NODE_50HOUR!$F$2:$F$102</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">PYTHON_50HOUR!$F$2:$F$102</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="329">
   <si>
     <t xml:space="preserve"> https://ahsm1pzph2.execute-api.eu-west-2.amazonaws.com/java-dev/todos</t>
   </si>
@@ -1005,9 +1029,6 @@
     <t>$(date)</t>
   </si>
   <si>
-    <t>RUNTIME</t>
-  </si>
-  <si>
     <t>PYTHON</t>
   </si>
   <si>
@@ -1030,13 +1051,22 @@
   </si>
   <si>
     <t>MAX</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>median</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000\ &quot;sec&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1045,11 +1075,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1060,7 +1103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1068,13 +1111,264 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,346 +1400,159 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Cold Start Statistics</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37526792558009897"/>
+          <c:y val="1.6129032258064516E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Java</c:v>
+            <c:v>PYTHON</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'OVERALL STATS'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MEAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MEDIAN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MIN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>STDDEV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JAVA_50HOUR!$F$2:$F$102</c:f>
+              <c:f>'OVERALL STATS'!$B$2:$H$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:formatCode>0.00000\ "sec"</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.27421200000000001</c:v>
+                  <c:v>1.1300919702970298</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8597140000000003</c:v>
+                  <c:v>0.91437400000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0682830000000001</c:v>
+                  <c:v>0.21165500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9106259999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.3120969999999996</c:v>
+                  <c:v>29.721109999999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2.9345355211273842</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7643339999999998</c:v>
+                  <c:v>1.5406169999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7026459999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.9716680000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.1875970000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.7004720000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.6964350000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.6721909999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.9287229999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.0156830000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.2472099999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.765873</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.81182</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.9275460000000004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.9019170000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.8278619999999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.2104340000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4905119999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.7672809999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.9069120000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.6982309999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.8762239999999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.6438389999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.8886760000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.0731210000000004</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.1271190000000004</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.9412409999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.8525029999999996</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.9035650000000004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.9341160000000004</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.9521860000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.9393339999999997</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.7121209999999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.4859099999999996</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.6896979999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.8557969999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.8720679999999996</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.904274</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.9860199999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.9315559999999996</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.2081480000000004</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.7747630000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.1264190000000003</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.5512870000000003</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.42571300000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5.6052549999999997</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.30952200000000002</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.44736399999999998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.30703399999999997</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.30613800000000002</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.54352299999999998</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5.2550670000000004</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4.9723059999999997</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.1505280000000004</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.0724320000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.0085040000000003</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4.7986110000000002</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5.0424100000000003</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.1158039999999998</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5.0958310000000004</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>5.0779899999999998</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5.0047980000000001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4.8298220000000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.30901800000000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.330071</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.304398</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.26824799999999999</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.32971299999999998</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.25157200000000002</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.25434600000000002</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.23197200000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.305705</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.24462900000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.23785200000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.202236</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>4.4067119999999997</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5.3203529999999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>5.1637769999999996</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>5.2815479999999999</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5.4123950000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>5.0741199999999997</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4.5346289999999998</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>5.2204639999999998</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>4.8471200000000003</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5.3679519999999998</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.28420699999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.32370399999999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.27017099999999999</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>5.1198750000000004</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>5.0279410000000002</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>5.0636279999999996</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>5.2442460000000004</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>5.305949</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4.9485999999999999</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>5.5600630000000004</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.38084400000000002</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.33691700000000002</c:v>
+                  <c:v>5.4986949999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0D04-0A4F-A8E8-98406512F0F9}"/>
+              <c16:uniqueId val="{00000000-04A6-3C43-896C-9FE6F0596543}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1453,336 +1560,80 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Node</c:v>
+            <c:v>NODE</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'OVERALL STATS'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MEAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MEDIAN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MIN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>STDDEV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NODE_50HOUR!$F$2:$F$102</c:f>
+              <c:f>'OVERALL STATS'!$B$3:$H$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:formatCode>0.00000\ "sec"</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.23872399999999999</c:v>
+                  <c:v>1.0496012574257427</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85594099999999995</c:v>
+                  <c:v>0.89501299999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89847399999999999</c:v>
+                  <c:v>0.213169</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90676900000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.87322299999999997</c:v>
+                  <c:v>29.718620999999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2.9003586881638923</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.904891</c:v>
+                  <c:v>1.2692559999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93128299999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.84708000000000006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.88633499999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.90918699999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99576699999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.922817</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.79347900000000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.90504499999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.2692559999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.87784200000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.87965199999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.739784</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.89569699999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.91940500000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.87100299999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.92436399999999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.78952699999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.88023700000000005</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.95171799999999995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.01959</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.91695099999999996</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.74727200000000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.958812</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.94911400000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.87932500000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.90945500000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.058227</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.88315699999999997</c:v>
-                </c:pt>
-                <c:pt idx="34">
                   <c:v>1.788889</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.92819700000000005</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.2772570000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.86502199999999996</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.88253099999999995</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.92130500000000004</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.84033199999999997</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.873062</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.91369299999999998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.28298800000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.92391699999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.93802799999999997</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.93667299999999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.81421600000000005</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.33512999999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.88127599999999995</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.22517599999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.21559800000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.28659600000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.280671</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.47811500000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.89501299999999995</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.92691900000000005</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.92117599999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.92399500000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.94918999999999998</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.93437800000000004</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.91074500000000003</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.92634300000000003</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.92056099999999996</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.93170900000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.35968600000000001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.73205600000000004</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.21867600000000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.213169</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.36269400000000002</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.23591100000000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.235649</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.21523</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.25189099999999998</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.29109099999999999</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.25620799999999999</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.24979000000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.22372400000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.23938799999999999</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.35369899999999999</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.94815899999999997</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.867483</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.94113999999999998</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.89954100000000004</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.92771599999999999</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.4123209999999999</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.91886900000000005</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.366678</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.90795099999999995</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.7664500000000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.25710499999999997</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.24385100000000001</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>29.718620999999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.94105499999999997</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.89799899999999999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.91925000000000001</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.92669000000000001</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.89068400000000003</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.000291</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.24028099999999999</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.26062600000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0D04-0A4F-A8E8-98406512F0F9}"/>
+              <c16:uniqueId val="{00000001-04A6-3C43-896C-9FE6F0596543}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1790,339 +1641,88 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Python</c:v>
+            <c:strRef>
+              <c:f>'OVERALL STATS'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JAVA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'OVERALL STATS'!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MEAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MEDIAN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MIN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>STDDEV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PYTHON_50HOUR!$F$2:$F$102</c:f>
+              <c:f>'OVERALL STATS'!$B$4:$H$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:formatCode>0.00000\ "sec"</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.31457200000000002</c:v>
+                  <c:v>3.9899395148514842</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97593399999999997</c:v>
+                  <c:v>4.9412409999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91268700000000003</c:v>
+                  <c:v>0.202236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89676900000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.88236800000000004</c:v>
+                  <c:v>6.765873</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2.0959092221006319</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.894513</c:v>
+                  <c:v>5.7121209999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96839299999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.94566099999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.93440900000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.89535900000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.623113</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.89151000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.84839299999999995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.86593399999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4405749999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.94489699999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.91913299999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.91795499999999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.86723600000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.92574699999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.89572700000000005</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.88504099999999997</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.88532100000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.91535999999999995</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.1640550000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.1283049999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.83695699999999995</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.012124</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.92226600000000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.91437400000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.86761999999999995</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.99957300000000004</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.171996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.90149299999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.85062400000000005</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.92168499999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.694123</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.0509040000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.93874100000000005</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.98914000000000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.86722299999999997</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.94306999999999996</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.1482000000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.97211599999999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.92972299999999997</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.91934800000000005</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.93128699999999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.90503599999999995</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.216725</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.339134</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.26965800000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.23699899999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.217255</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.24718000000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.36172500000000002</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.5406169999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.92309799999999997</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.90721099999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.948994</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.923454</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.94551300000000005</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.901111</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.4986949999999997</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.91921900000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.94006699999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.2757259999999999</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.94132700000000002</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.270816</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.26886599999999999</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.248393</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.23330400000000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.21487700000000001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.22195999999999999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.26993899999999998</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.25806299999999999</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.25598799999999999</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.28193000000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.22039800000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.26874199999999998</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.275393</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.92142800000000002</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.90870700000000004</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.35619800000000001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.94909900000000003</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.91839000000000004</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.99022900000000003</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.93341600000000002</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.90314499999999998</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.9262889999999999</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.27487</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.21165500000000001</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.269816</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>29.721109999999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.92347299999999999</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.28287800000000002</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.92431200000000002</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.90029300000000001</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.94315000000000004</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.0906100000000001</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.27615200000000001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.24510199999999999</c:v>
+                  <c:v>5.9275460000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-0D04-0A4F-A8E8-98406512F0F9}"/>
+              <c16:uniqueId val="{00000002-04A6-3C43-896C-9FE6F0596543}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2134,17 +1734,96 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1370827536"/>
-        <c:axId val="1339887040"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1307296416"/>
+        <c:axId val="957698368"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="1370827536"/>
+        <c:axId val="1307296416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" b="1"/>
+                  <a:t>Statistics</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47666947792663356"/>
+              <c:y val="0.93158595094967966"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2166,7 +1845,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2181,7 +1860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339887040"/>
+        <c:crossAx val="957698368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2189,7 +1868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1339887040"/>
+        <c:axId val="957698368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,7 +1888,93 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" b="1"/>
+                  <a:t>Duration</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.8328416912487715E-4"/>
+              <c:y val="0.44623133801823167"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0\ &quot;sec&quot;" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2225,7 +1990,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2240,7 +2005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1370827536"/>
+        <c:crossAx val="1307296416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2252,6 +2017,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.91409681090748607"/>
+          <c:y val="0.45531270284762793"/>
+          <c:w val="8.2809045788707694E-2"/>
+          <c:h val="0.14916857167047667"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2283,11 +2089,16 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2345,20 +2156,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>JAVA_50HOUR!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>%{time_total}</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>JAVA</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2682,7 +2485,684 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9C8B-A642-A6D3-D4CA27490E54}"/>
+              <c16:uniqueId val="{00000000-F3E5-F540-9207-C79D6A3AC55A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>NODE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>NODE_50HOUR!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.23872399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85594099999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89847399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90676900000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87322299999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.904891</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93128299999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84708000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88633499999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90918699999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99576699999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.922817</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79347900000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90504499999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2692559999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.87784200000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.87965199999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.739784</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89569699999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.91940500000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.87100299999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.92436399999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.78952699999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.88023700000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95171799999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.01959</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.91695099999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.74727200000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.958812</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94911400000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.87932500000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.90945500000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.058227</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.88315699999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.788889</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.92819700000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2772570000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.86502199999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.88253099999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.92130500000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.84033199999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.873062</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.91369299999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.28298800000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.92391699999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.93802799999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.93667299999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.81421600000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.33512999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.88127599999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.22517599999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.21559800000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.28659600000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.280671</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.47811500000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.89501299999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.92691900000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.92117599999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.92399500000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.94918999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.93437800000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.91074500000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.92634300000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.92056099999999996</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.93170900000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.35968600000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.73205600000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.21867600000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.213169</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.36269400000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.23591100000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.235649</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.21523</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.25189099999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.29109099999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.25620799999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.24979000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.22372400000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.23938799999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.35369899999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.94815899999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.867483</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.94113999999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.89954100000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.92771599999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.4123209999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.91886900000000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.366678</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.90795099999999995</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7664500000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.25710499999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.24385100000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>29.718620999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94105499999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.89799899999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.91925000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.92669000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.89068400000000003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.000291</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.24028099999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.26062600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F3E5-F540-9207-C79D6A3AC55A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>PYTHON</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PYTHON_50HOUR!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.31457200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97593399999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91268700000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89676900000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88236800000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.894513</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96839299999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94566099999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93440900000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89535900000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.623113</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89151000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84839299999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86593399999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4405749999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94489699999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91913299999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91795499999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.86723600000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92574699999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89572700000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.88504099999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88532100000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91535999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1640550000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1283049999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.83695699999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.012124</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.92226600000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.91437400000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.86761999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99957300000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.171996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.90149299999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.85062400000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.92168499999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.694123</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0509040000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.93874100000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.98914000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.86722299999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.94306999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1482000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.97211599999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.92972299999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.91934800000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.93128699999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.90503599999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.216725</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.339134</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.26965800000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.23699899999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.217255</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.24718000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.36172500000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.5406169999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.92309799999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.90721099999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.948994</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.923454</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.94551300000000005</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.901111</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.4986949999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.91921900000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.94006699999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.2757259999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.94132700000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.270816</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.26886599999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.248393</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.23330400000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.21487700000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.22195999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.26993899999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.25806299999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.25598799999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.28193000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.22039800000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.26874199999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.275393</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.92142800000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.90870700000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.35619800000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.94909900000000003</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.91839000000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99022900000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.93341600000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.90314499999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9262889999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.27487</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.21165500000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.269816</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>29.721109999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.92347299999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.28287800000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.92431200000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.90029300000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.94315000000000004</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0906100000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.27615200000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.24510199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F3E5-F540-9207-C79D6A3AC55A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2695,16 +3175,46 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1368313504"/>
-        <c:axId val="860716064"/>
+        <c:axId val="1301869488"/>
+        <c:axId val="975303760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1368313504"/>
+        <c:axId val="1301869488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2741,7 +3251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="860716064"/>
+        <c:crossAx val="975303760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2749,7 +3259,1333 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="860716064"/>
+        <c:axId val="975303760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1301869488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JAVA_50HOUR!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%{time_total}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>JAVA_50HOUR!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.27421200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8597140000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0682830000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9106259999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3120969999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7643339999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7026459999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9716680000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1875970000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7004720000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6964350000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6721909999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9287229999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0156830000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2472099999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.765873</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.81182</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9275460000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.9019170000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8278619999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2104340000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4905119999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7672809999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.9069120000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6982309999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.8762239999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.6438389999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.8886760000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0731210000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.1271190000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.8525029999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9035650000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.9341160000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.9521860000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.9393339999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.7121209999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.4859099999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.6896979999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.8557969999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.8720679999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.904274</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.9860199999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.9315559999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.2081480000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.7747630000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.1264190000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5512870000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.42571300000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.6052549999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.30952200000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.44736399999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.30703399999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.30613800000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54352299999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.2550670000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.9723059999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.1505280000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.0724320000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.0085040000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.7986110000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.0424100000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.1158039999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.0958310000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.0779899999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.0047980000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.8298220000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.30901800000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.330071</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.304398</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.26824799999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.32971299999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.25157200000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.25434600000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.23197200000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.305705</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.24462900000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.23785200000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.202236</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.4067119999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.3203529999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.1637769999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.2815479999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.4123950000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.0741199999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.5346289999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.2204639999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.8471200000000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.3679519999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.28420699999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.32370399999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.27017099999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.1198750000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.0279410000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.0636279999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.2442460000000004</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.305949</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.9485999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.5600630000000004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.38084400000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.33691700000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AE3-F34A-8953-4F99F78BCA18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="961312880"/>
+        <c:axId val="1339826592"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JAVA_50HOUR!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>JAVA_50HOUR!$I$2:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.9899395148514842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9AE3-F34A-8953-4F99F78BCA18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JAVA_50HOUR!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>median</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>JAVA_50HOUR!$J$2:$J$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.9412409999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9AE3-F34A-8953-4F99F78BCA18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="961312880"/>
+        <c:axId val="1339826592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="961312880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1339826592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1339826592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2800,7 +4636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1368313504"/>
+        <c:crossAx val="961312880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2812,6 +4648,936 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NODE_50HOUR!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%{time_total}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>NODE_50HOUR!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.23872399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85594099999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89847399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90676900000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87322299999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.904891</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93128299999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84708000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88633499999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90918699999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99576699999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.922817</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79347900000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90504499999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2692559999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.87784200000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.87965199999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.739784</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89569699999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.91940500000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.87100299999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.92436399999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.78952699999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.88023700000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95171799999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.01959</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.91695099999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.74727200000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.958812</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94911400000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.87932500000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.90945500000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.058227</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.88315699999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.788889</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.92819700000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2772570000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.86502199999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.88253099999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.92130500000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.84033199999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.873062</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.91369299999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.28298800000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.92391699999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.93802799999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.93667299999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.81421600000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.33512999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.88127599999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.22517599999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.21559800000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.28659600000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.280671</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.47811500000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.89501299999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.92691900000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.92117599999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.92399500000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.94918999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.93437800000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.91074500000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.92634300000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.92056099999999996</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.93170900000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.35968600000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.73205600000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.21867600000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.213169</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.36269400000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.23591100000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.235649</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.21523</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.25189099999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.29109099999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.25620799999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.24979000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.22372400000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.23938799999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.35369899999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.94815899999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.867483</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.94113999999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.89954100000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.92771599999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.4123209999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.91886900000000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.366678</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.90795099999999995</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7664500000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.25710499999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.24385100000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>29.718620999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94105499999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.89799899999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.91925000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.92669000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.89068400000000003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.000291</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.24028099999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.26062600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8473-9049-B700-BCAC4DFC8C3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PYTHON</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PYTHON_50HOUR!$F$1:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="102"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31457200000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97593399999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91268700000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89676900000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88236800000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.894513</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96839299999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94566099999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93440900000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89535900000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.623113</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89151000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84839299999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.86593399999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4405749999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94489699999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91913299999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.91795499999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86723600000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92574699999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89572700000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88504099999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.88532100000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91535999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1640550000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1283049999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.83695699999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.012124</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.92226600000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.91437400000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.86761999999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99957300000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.171996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.90149299999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85062400000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92168499999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.694123</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0509040000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.93874100000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.98914000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.86722299999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.94306999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1482000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.97211599999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.92972299999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.91934800000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.93128699999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.90503599999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.216725</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.339134</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.26965800000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.23699899999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.217255</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.24718000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.36172500000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.5406169999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.92309799999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.90721099999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.948994</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.923454</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.94551300000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.901111</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.4986949999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.91921900000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.94006699999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2757259999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.94132700000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.270816</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.26886599999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.248393</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.23330400000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.21487700000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.22195999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.26993899999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.25806299999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.25598799999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.28193000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.22039800000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.26874199999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.275393</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.92142800000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.90870700000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.35619800000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.94909900000000003</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.91839000000000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99022900000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.93341600000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.90314499999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.9262889999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.27487</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.21165500000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.269816</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>29.721109999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.92347299999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.28287800000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.92431200000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.90029300000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.94315000000000004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.0906100000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.27615200000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.24510199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8473-9049-B700-BCAC4DFC8C3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1372979904"/>
+        <c:axId val="962899968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1372979904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="962899968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="962899968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1372979904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2848,15 +5614,10 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3800,7 +6561,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4480,6 +7241,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5023,7 +7864,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5131,11 +7972,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5146,11 +7982,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5182,9 +8013,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6055,6 +8883,1025 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6571,10 +10418,21 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{57EB1E1C-B04D-564A-B17F-50728A1E3D4D}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F3B6D92F-5335-B542-9720-9A98386FD25E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="243" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0EDECA83-016A-C143-9202-E71BBF75A902}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="243" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6583,15 +10441,56 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2159000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1841500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF6A125-1889-C547-B05C-69D835C37E37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302750" cy="6064250"/>
+    <xdr:ext cx="9308107" cy="6067778"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB8F0F6-348E-C545-821B-0A04392678B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C243A6-334D-6746-8C37-036B3734164A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6614,27 +10513,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D47EF5E-BC17-504D-BB84-6587E1CCF467}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C8F656A-45E4-8541-A189-400F95523475}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6655,7 +10554,40 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308107" cy="6067778"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E73704-7DE4-E24A-B0F3-640A633011E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6696,7 +10628,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7046,141 +10978,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AAA97C-5618-6F42-AD32-33E52397D45A}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="30" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="26.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1" s="5">
+        <v>95</v>
+      </c>
+      <c r="H1" s="6">
+        <v>99</v>
+      </c>
+      <c r="I1" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D1" s="1">
-        <v>95</v>
-      </c>
-      <c r="E1" s="1">
-        <v>99</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="B2" s="7">
         <f>AVERAGE(PYTHON_50HOUR!$F$2:$F$102)</f>
         <v>1.1300919702970298</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <f>MEDIAN(PYTHON_50HOUR!$F$2:$F$102)</f>
         <v>0.91437400000000002</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
+      <c r="D2" s="8">
+        <f>MIN(PYTHON_50HOUR!$F$2:$F$102)</f>
+        <v>0.21165500000000001</v>
+      </c>
+      <c r="E2" s="8">
+        <f>MAX(PYTHON_50HOUR!$F$2:$F$102)</f>
+        <v>29.721109999999999</v>
+      </c>
+      <c r="F2" s="9">
         <f>STDEV(PYTHON_50HOUR!$F$2:$F$102)</f>
         <v>2.9345355211273842</v>
       </c>
-      <c r="G2" s="1">
-        <f>MIN(PYTHON_50HOUR!$F$2:$F$102)</f>
-        <v>0.21165500000000001</v>
-      </c>
-      <c r="H2" s="1">
-        <f>MAX(PYTHON_50HOUR!$F$2:$F$102)</f>
+      <c r="G2" s="8">
+        <f>PERCENTILE(PYTHON_50HOUR!$F$2:$F$102,0.95)</f>
+        <v>1.5406169999999999</v>
+      </c>
+      <c r="H2" s="10">
+        <f>PERCENTILE(PYTHON_50HOUR!$F$2:$F$102,0.99)</f>
+        <v>5.4986949999999997</v>
+      </c>
+      <c r="I2" s="10">
+        <f>PERCENTILE(PYTHON_50HOUR!$F$2:$F$102,1)</f>
         <v>29.721109999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="11">
+        <f>AVERAGE(NODE_50HOUR!$F$2:$F$102)</f>
+        <v>1.0496012574257427</v>
+      </c>
+      <c r="C3" s="12">
+        <f>MEDIAN(NODE_50HOUR!$F$2:$F$102)</f>
+        <v>0.89501299999999995</v>
+      </c>
+      <c r="D3" s="12">
+        <f>MIN(NODE_50HOUR!$F$2:$F$102)</f>
+        <v>0.213169</v>
+      </c>
+      <c r="E3" s="12">
+        <f>MAX(NODE_50HOUR!$F$2:$F$102)</f>
+        <v>29.718620999999999</v>
+      </c>
+      <c r="F3" s="13">
+        <f>STDEV(NODE_50HOUR!$F$2:$F$102)</f>
+        <v>2.9003586881638923</v>
+      </c>
+      <c r="G3" s="12">
+        <f>PERCENTILE(NODE_50HOUR!$F$2:$F$102,0.95)</f>
+        <v>1.2692559999999999</v>
+      </c>
+      <c r="H3" s="14">
+        <f>PERCENTILE(NODE_50HOUR!$F$2:$F$102,0.99)</f>
+        <v>1.788889</v>
+      </c>
+      <c r="I3" s="14">
+        <f>PERCENTILE(NODE_50HOUR!$F$2:$F$102,1)</f>
+        <v>29.718620999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="15">
         <f>AVERAGE(JAVA_50HOUR!$F$2:$F$102)</f>
         <v>3.9899395148514842</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="16">
         <f>MEDIAN(JAVA_50HOUR!$F$2:$F$102)</f>
         <v>4.9412409999999998</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
+      <c r="D4" s="16">
+        <f>MIN(JAVA_50HOUR!$F$2:$F$102)</f>
+        <v>0.202236</v>
+      </c>
+      <c r="E4" s="16">
+        <f>MAX(JAVA_50HOUR!$F$2:$F$102)</f>
+        <v>6.765873</v>
+      </c>
+      <c r="F4" s="17">
         <f>STDEV(JAVA_50HOUR!$F$2:$F$102)</f>
         <v>2.0959092221006319</v>
       </c>
-      <c r="G3" s="1">
-        <f>MIN(JAVA_50HOUR!$F$2:$F$102)</f>
-        <v>0.202236</v>
-      </c>
-      <c r="H3" s="1">
-        <f>MAX(JAVA_50HOUR!$F$2:$F$102)</f>
+      <c r="G4" s="16">
+        <f>PERCENTILE(JAVA_50HOUR!$F$2:$F$102,0.95)</f>
+        <v>5.7121209999999998</v>
+      </c>
+      <c r="H4" s="18">
+        <f>PERCENTILE(JAVA_50HOUR!$F$2:$F$102,0.99)</f>
+        <v>5.9275460000000004</v>
+      </c>
+      <c r="I4" s="18">
+        <f>PERCENTILE(JAVA_50HOUR!$F$2:$F$102,1)</f>
         <v>6.765873</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B4" s="1">
-        <f>AVERAGE(NODE_50HOUR!$F$2:$F$102)</f>
-        <v>1.0496012574257427</v>
-      </c>
-      <c r="C4" s="1">
-        <f>MEDIAN(NODE_50HOUR!$F$2:$F$102)</f>
-        <v>0.89501299999999995</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <f>STDEV(NODE_50HOUR!$F$2:$F$102)</f>
-        <v>2.9003586881638923</v>
-      </c>
-      <c r="G4" s="1">
-        <f>MIN(NODE_50HOUR!$F$2:$F$102)</f>
-        <v>0.213169</v>
-      </c>
-      <c r="H4" s="1">
-        <f>MAX(NODE_50HOUR!$F$2:$F$102)</f>
-        <v>29.718620999999999</v>
-      </c>
-    </row>
+    <row r="5" spans="1:9" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF782623-0FB1-7A40-8D40-AB2991AE3ED4}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V53" sqref="V53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7195,7 +11155,7 @@
     <col min="8" max="8" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>311</v>
       </c>
@@ -7220,8 +11180,14 @@
       <c r="H1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7246,8 +11212,16 @@
       <c r="H2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <f>AVERAGE(F:F)</f>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J2">
+        <f>MEDIAN(F:F)</f>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7272,8 +11246,16 @@
       <c r="H3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="0">AVERAGE(F:F)</f>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="1">MEDIAN(F:F)</f>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7298,8 +11280,16 @@
       <c r="H4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7324,8 +11314,16 @@
       <c r="H5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7350,8 +11348,16 @@
       <c r="H6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -7376,8 +11382,16 @@
       <c r="H7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -7402,8 +11416,16 @@
       <c r="H8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -7428,8 +11450,16 @@
       <c r="H9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -7454,8 +11484,16 @@
       <c r="H10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -7480,8 +11518,16 @@
       <c r="H11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -7506,8 +11552,16 @@
       <c r="H12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -7532,8 +11586,16 @@
       <c r="H13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -7558,8 +11620,16 @@
       <c r="H14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -7584,8 +11654,16 @@
       <c r="H15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -7610,8 +11688,16 @@
       <c r="H16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -7636,8 +11722,16 @@
       <c r="H17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -7662,8 +11756,16 @@
       <c r="H18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -7688,8 +11790,16 @@
       <c r="H19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -7714,8 +11824,16 @@
       <c r="H20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -7740,8 +11858,16 @@
       <c r="H21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -7766,8 +11892,16 @@
       <c r="H22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -7792,8 +11926,16 @@
       <c r="H23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -7818,8 +11960,16 @@
       <c r="H24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -7844,8 +11994,16 @@
       <c r="H25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -7870,8 +12028,16 @@
       <c r="H26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -7896,8 +12062,16 @@
       <c r="H27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -7922,8 +12096,16 @@
       <c r="H28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -7948,8 +12130,16 @@
       <c r="H29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -7974,8 +12164,16 @@
       <c r="H30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -8000,8 +12198,16 @@
       <c r="H31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -8026,8 +12232,16 @@
       <c r="H32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -8052,8 +12266,16 @@
       <c r="H33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -8078,8 +12300,16 @@
       <c r="H34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -8104,8 +12334,16 @@
       <c r="H35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -8130,8 +12368,16 @@
       <c r="H36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -8156,8 +12402,16 @@
       <c r="H37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -8182,8 +12436,16 @@
       <c r="H38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -8208,8 +12470,16 @@
       <c r="H39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -8234,8 +12504,16 @@
       <c r="H40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -8260,8 +12538,16 @@
       <c r="H41" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -8286,8 +12572,16 @@
       <c r="H42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -8312,8 +12606,16 @@
       <c r="H43" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -8338,8 +12640,16 @@
       <c r="H44" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -8364,8 +12674,16 @@
       <c r="H45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -8390,8 +12708,16 @@
       <c r="H46" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -8416,8 +12742,16 @@
       <c r="H47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -8442,8 +12776,16 @@
       <c r="H48" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -8468,8 +12810,16 @@
       <c r="H49" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -8494,8 +12844,16 @@
       <c r="H50" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -8520,8 +12878,16 @@
       <c r="H51" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -8546,8 +12912,16 @@
       <c r="H52" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -8572,8 +12946,16 @@
       <c r="H53" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -8598,8 +12980,16 @@
       <c r="H54" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -8624,8 +13014,16 @@
       <c r="H55" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -8650,8 +13048,16 @@
       <c r="H56" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -8676,8 +13082,16 @@
       <c r="H57" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -8702,8 +13116,16 @@
       <c r="H58" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -8728,8 +13150,16 @@
       <c r="H59" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -8754,8 +13184,16 @@
       <c r="H60" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -8780,8 +13218,16 @@
       <c r="H61" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -8806,8 +13252,16 @@
       <c r="H62" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -8832,8 +13286,16 @@
       <c r="H63" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -8858,8 +13320,16 @@
       <c r="H64" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -8884,8 +13354,16 @@
       <c r="H65" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -8910,8 +13388,16 @@
       <c r="H66" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -8936,8 +13422,16 @@
       <c r="H67" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <f t="shared" ref="I67:I102" si="2">AVERAGE(F:F)</f>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J102" si="3">MEDIAN(F:F)</f>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -8962,8 +13456,16 @@
       <c r="H68" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -8988,8 +13490,16 @@
       <c r="H69" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -9014,8 +13524,16 @@
       <c r="H70" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -9040,8 +13558,16 @@
       <c r="H71" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -9066,8 +13592,16 @@
       <c r="H72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -9092,8 +13626,16 @@
       <c r="H73" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -9118,8 +13660,16 @@
       <c r="H74" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -9144,8 +13694,16 @@
       <c r="H75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -9170,8 +13728,16 @@
       <c r="H76" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -9196,8 +13762,16 @@
       <c r="H77" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -9222,8 +13796,16 @@
       <c r="H78" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -9248,8 +13830,16 @@
       <c r="H79" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -9274,8 +13864,16 @@
       <c r="H80" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -9300,8 +13898,16 @@
       <c r="H81" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -9326,8 +13932,16 @@
       <c r="H82" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -9352,8 +13966,16 @@
       <c r="H83" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -9378,8 +14000,16 @@
       <c r="H84" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -9404,8 +14034,16 @@
       <c r="H85" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -9430,8 +14068,16 @@
       <c r="H86" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -9456,8 +14102,16 @@
       <c r="H87" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -9482,8 +14136,16 @@
       <c r="H88" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -9508,8 +14170,16 @@
       <c r="H89" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -9534,8 +14204,16 @@
       <c r="H90" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -9560,8 +14238,16 @@
       <c r="H91" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -9586,8 +14272,16 @@
       <c r="H92" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -9612,8 +14306,16 @@
       <c r="H93" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -9638,8 +14340,16 @@
       <c r="H94" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -9664,8 +14374,16 @@
       <c r="H95" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -9690,8 +14408,16 @@
       <c r="H96" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -9716,8 +14442,16 @@
       <c r="H97" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -9742,8 +14476,16 @@
       <c r="H98" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -9768,8 +14510,16 @@
       <c r="H99" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -9794,8 +14544,16 @@
       <c r="H100" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -9820,8 +14578,16 @@
       <c r="H101" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -9845,6 +14611,14 @@
       </c>
       <c r="H102" t="s">
         <v>104</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="2"/>
+        <v>3.9899395148514842</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="3"/>
+        <v>4.9412409999999998</v>
       </c>
     </row>
   </sheetData>
@@ -9857,8 +14631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4FC4AF-A54D-1F45-9C69-B2690160FD4F}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12535,7 +17309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7765DC-D6A6-014D-9657-6EA19490FA62}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
